--- a/data/pca/factorExposure/factorExposure_2015-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01952527303748387</v>
+        <v>0.009528439357750813</v>
       </c>
       <c r="C2">
-        <v>0.01795374673353621</v>
+        <v>-0.05034077691603433</v>
       </c>
       <c r="D2">
-        <v>0.1087874906625183</v>
+        <v>0.1303325511293982</v>
       </c>
       <c r="E2">
-        <v>-0.005413097032363937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02084966080302194</v>
+      </c>
+      <c r="F2">
+        <v>0.03111762533429002</v>
+      </c>
+      <c r="G2">
+        <v>0.128180099891711</v>
+      </c>
+      <c r="H2">
+        <v>-0.04334830347885504</v>
+      </c>
+      <c r="I2">
+        <v>0.1349154188946525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0004539448243294931</v>
+        <v>-0.0003041978502575288</v>
       </c>
       <c r="C3">
-        <v>0.002432482499002614</v>
+        <v>-0.001872258512506246</v>
       </c>
       <c r="D3">
-        <v>-0.0002893474569831106</v>
+        <v>0.001373978137072227</v>
       </c>
       <c r="E3">
-        <v>0.002303116345435302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.003894556573566305</v>
+      </c>
+      <c r="F3">
+        <v>-0.003781447152903324</v>
+      </c>
+      <c r="G3">
+        <v>0.002915222365813982</v>
+      </c>
+      <c r="H3">
+        <v>0.009528288971298768</v>
+      </c>
+      <c r="I3">
+        <v>-0.001592754696729092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04590814475644516</v>
+        <v>0.0200481880208907</v>
       </c>
       <c r="C4">
-        <v>0.07164047283224649</v>
+        <v>-0.1041809713011539</v>
       </c>
       <c r="D4">
-        <v>0.1342736096232967</v>
+        <v>0.135405873033233</v>
       </c>
       <c r="E4">
-        <v>-0.07962075510097077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.007534143242009865</v>
+      </c>
+      <c r="F4">
+        <v>0.0921940284027314</v>
+      </c>
+      <c r="G4">
+        <v>0.009122652691603299</v>
+      </c>
+      <c r="H4">
+        <v>-0.0530387798212049</v>
+      </c>
+      <c r="I4">
+        <v>-0.06555429404646818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02277909579316696</v>
+        <v>0.02733585453594075</v>
       </c>
       <c r="C6">
-        <v>0.01269577823141918</v>
+        <v>-0.03376232562454962</v>
       </c>
       <c r="D6">
-        <v>0.1392312372116361</v>
+        <v>0.1235177185114648</v>
       </c>
       <c r="E6">
-        <v>-0.03341564691688589</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05696290407256595</v>
+      </c>
+      <c r="F6">
+        <v>0.04626458638036181</v>
+      </c>
+      <c r="G6">
+        <v>0.006280829157393909</v>
+      </c>
+      <c r="H6">
+        <v>-0.05328989164878933</v>
+      </c>
+      <c r="I6">
+        <v>-0.02950109217876125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.003681172250678384</v>
+        <v>0.009015639202668074</v>
       </c>
       <c r="C7">
-        <v>0.0223061454960482</v>
+        <v>-0.03347711378856894</v>
       </c>
       <c r="D7">
-        <v>0.1114334494501885</v>
+        <v>0.09761722412521061</v>
       </c>
       <c r="E7">
-        <v>-0.001302268128805108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05206770270263832</v>
+      </c>
+      <c r="F7">
+        <v>0.009126103516192755</v>
+      </c>
+      <c r="G7">
+        <v>0.005944502005626565</v>
+      </c>
+      <c r="H7">
+        <v>-0.07648942021554084</v>
+      </c>
+      <c r="I7">
+        <v>-0.0007740253861492157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004649705925521284</v>
+        <v>-0.0080976436654225</v>
       </c>
       <c r="C8">
-        <v>0.02488177426588027</v>
+        <v>-0.03248403876639588</v>
       </c>
       <c r="D8">
-        <v>0.08117001203957765</v>
+        <v>0.07871572946121048</v>
       </c>
       <c r="E8">
-        <v>-0.02423686621554314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03629448029633899</v>
+      </c>
+      <c r="F8">
+        <v>0.05233118905868112</v>
+      </c>
+      <c r="G8">
+        <v>0.06125317125419835</v>
+      </c>
+      <c r="H8">
+        <v>-0.0001965972813788911</v>
+      </c>
+      <c r="I8">
+        <v>-0.007081083184341912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03817707731384322</v>
+        <v>0.01398808743418579</v>
       </c>
       <c r="C9">
-        <v>0.06032001205049659</v>
+        <v>-0.0858766059122546</v>
       </c>
       <c r="D9">
-        <v>0.1335816043920529</v>
+        <v>0.1166102761983522</v>
       </c>
       <c r="E9">
-        <v>-0.06379536959572292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.009430723635938444</v>
+      </c>
+      <c r="F9">
+        <v>0.0609147061022073</v>
+      </c>
+      <c r="G9">
+        <v>-0.005736172812582076</v>
+      </c>
+      <c r="H9">
+        <v>-0.06751347776832535</v>
+      </c>
+      <c r="I9">
+        <v>-0.03705943909119613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.165270086847453</v>
+        <v>0.2374664123735611</v>
       </c>
       <c r="C10">
-        <v>-0.1744983541402763</v>
+        <v>0.09498820411644508</v>
       </c>
       <c r="D10">
-        <v>0.01012584868789344</v>
+        <v>-0.002580712384275834</v>
       </c>
       <c r="E10">
-        <v>-0.04520783013442686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01244973926639112</v>
+      </c>
+      <c r="F10">
+        <v>0.0450189947922438</v>
+      </c>
+      <c r="G10">
+        <v>-0.0006457571239056033</v>
+      </c>
+      <c r="H10">
+        <v>0.05043621911757989</v>
+      </c>
+      <c r="I10">
+        <v>0.0100114154904327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02043501294754186</v>
+        <v>0.01041502294420446</v>
       </c>
       <c r="C11">
-        <v>0.04021996969702241</v>
+        <v>-0.05324379508386147</v>
       </c>
       <c r="D11">
-        <v>0.04990895490151192</v>
+        <v>0.04370722845825614</v>
       </c>
       <c r="E11">
-        <v>0.01699876879010806</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02006086071562939</v>
+      </c>
+      <c r="F11">
+        <v>-0.01286632024356647</v>
+      </c>
+      <c r="G11">
+        <v>0.001101799037877641</v>
+      </c>
+      <c r="H11">
+        <v>-0.04638355601933031</v>
+      </c>
+      <c r="I11">
+        <v>-0.05825169935339399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02124821881216579</v>
+        <v>0.0106635857521849</v>
       </c>
       <c r="C12">
-        <v>0.03963645019088916</v>
+        <v>-0.04894239123614701</v>
       </c>
       <c r="D12">
-        <v>0.06279384583435679</v>
+        <v>0.04891824208397215</v>
       </c>
       <c r="E12">
-        <v>0.006950924772159295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0153147472321956</v>
+      </c>
+      <c r="F12">
+        <v>-0.01587649667682822</v>
+      </c>
+      <c r="G12">
+        <v>-0.01337610719720174</v>
+      </c>
+      <c r="H12">
+        <v>-0.07284639387429931</v>
+      </c>
+      <c r="I12">
+        <v>-0.02549638283083429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.003912938763070588</v>
+        <v>-0.003513504686606334</v>
       </c>
       <c r="C13">
-        <v>0.02393549319171922</v>
+        <v>-0.04418811944897052</v>
       </c>
       <c r="D13">
-        <v>0.1474565959747225</v>
+        <v>0.149119615479838</v>
       </c>
       <c r="E13">
-        <v>-0.0325413983563826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03737000376136889</v>
+      </c>
+      <c r="F13">
+        <v>0.0330282352732091</v>
+      </c>
+      <c r="G13">
+        <v>0.03047109777037127</v>
+      </c>
+      <c r="H13">
+        <v>-0.06010388867241225</v>
+      </c>
+      <c r="I13">
+        <v>0.08644141812805134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004618935403221592</v>
+        <v>0.0006753607722820632</v>
       </c>
       <c r="C14">
-        <v>0.01794533051019808</v>
+        <v>-0.02810106021313082</v>
       </c>
       <c r="D14">
-        <v>0.1003099791404168</v>
+        <v>0.1012909002183993</v>
       </c>
       <c r="E14">
-        <v>-0.008068557510587774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04900541905555195</v>
+      </c>
+      <c r="F14">
+        <v>0.03401737796928948</v>
+      </c>
+      <c r="G14">
+        <v>0.03499102002456835</v>
+      </c>
+      <c r="H14">
+        <v>-0.1232464929173184</v>
+      </c>
+      <c r="I14">
+        <v>0.002145391832341266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001636249412550261</v>
+        <v>-0.0007723675851700201</v>
       </c>
       <c r="C15">
-        <v>0.01010631778344835</v>
+        <v>-0.02256163479574875</v>
       </c>
       <c r="D15">
-        <v>0.0282985550522736</v>
+        <v>0.05803261175478039</v>
       </c>
       <c r="E15">
-        <v>0.003710530858231319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.009824576311246133</v>
+      </c>
+      <c r="F15">
+        <v>0.005439535858087235</v>
+      </c>
+      <c r="G15">
+        <v>0.02273916049311581</v>
+      </c>
+      <c r="H15">
+        <v>-0.02751199039797719</v>
+      </c>
+      <c r="I15">
+        <v>-0.01707255820464446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02027028586804296</v>
+        <v>0.01065776191658972</v>
       </c>
       <c r="C16">
-        <v>0.03712630539705648</v>
+        <v>-0.04858259480710394</v>
       </c>
       <c r="D16">
-        <v>0.05569276191376714</v>
+        <v>0.04484359092574824</v>
       </c>
       <c r="E16">
-        <v>0.009335483018567493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02126987898205833</v>
+      </c>
+      <c r="F16">
+        <v>-0.009120931050043237</v>
+      </c>
+      <c r="G16">
+        <v>-0.009778783866207504</v>
+      </c>
+      <c r="H16">
+        <v>-0.05240465660896559</v>
+      </c>
+      <c r="I16">
+        <v>-0.05000743017861112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.005687854980345746</v>
+        <v>0.0003768279083602249</v>
       </c>
       <c r="C19">
-        <v>0.02026641165775903</v>
+        <v>-0.01920166295425026</v>
       </c>
       <c r="D19">
-        <v>0.1061783633042418</v>
+        <v>0.06521966473608519</v>
       </c>
       <c r="E19">
-        <v>-0.03877521703270317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0118150079802698</v>
+      </c>
+      <c r="F19">
+        <v>0.01385840716385392</v>
+      </c>
+      <c r="G19">
+        <v>0.02084391554148384</v>
+      </c>
+      <c r="H19">
+        <v>-0.06044469808542096</v>
+      </c>
+      <c r="I19">
+        <v>0.03301752166315918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003575291046687714</v>
+        <v>0.005870916765736809</v>
       </c>
       <c r="C20">
-        <v>0.02436987617485702</v>
+        <v>-0.03862442688051882</v>
       </c>
       <c r="D20">
-        <v>0.08919306797556605</v>
+        <v>0.09434113542910834</v>
       </c>
       <c r="E20">
-        <v>-0.03276870227778252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02180350615465388</v>
+      </c>
+      <c r="F20">
+        <v>0.02866837620350969</v>
+      </c>
+      <c r="G20">
+        <v>0.003228390888825203</v>
+      </c>
+      <c r="H20">
+        <v>-0.05810764978181222</v>
+      </c>
+      <c r="I20">
+        <v>-0.04752936776135289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.006364258189710484</v>
+        <v>0.004622714969342468</v>
       </c>
       <c r="C21">
-        <v>0.02910712768662749</v>
+        <v>-0.04107066017609656</v>
       </c>
       <c r="D21">
-        <v>0.1666845874341126</v>
+        <v>0.1295056035612875</v>
       </c>
       <c r="E21">
-        <v>-0.06848395702014527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02953336864170724</v>
+      </c>
+      <c r="F21">
+        <v>0.09308618681807752</v>
+      </c>
+      <c r="G21">
+        <v>0.05059474113447086</v>
+      </c>
+      <c r="H21">
+        <v>-0.1864303839342128</v>
+      </c>
+      <c r="I21">
+        <v>0.1378906122742984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>3.868125135714948e-05</v>
+        <v>-0.008044014062492997</v>
       </c>
       <c r="C22">
-        <v>0.0618287587063138</v>
+        <v>-0.08539062896786798</v>
       </c>
       <c r="D22">
-        <v>0.2390244799707674</v>
+        <v>0.2656091195733184</v>
       </c>
       <c r="E22">
-        <v>0.02326115272991237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05001564357692558</v>
+      </c>
+      <c r="F22">
+        <v>0.02956212318733414</v>
+      </c>
+      <c r="G22">
+        <v>0.2854183712417203</v>
+      </c>
+      <c r="H22">
+        <v>0.4448560603739524</v>
+      </c>
+      <c r="I22">
+        <v>-0.0895007359949524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0002948955645776893</v>
+        <v>-0.007688559931465269</v>
       </c>
       <c r="C23">
-        <v>0.06232178008134086</v>
+        <v>-0.0864221990917745</v>
       </c>
       <c r="D23">
-        <v>0.2386092855289817</v>
+        <v>0.2663260248761115</v>
       </c>
       <c r="E23">
-        <v>0.0231107862194653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04688529510234731</v>
+      </c>
+      <c r="F23">
+        <v>0.02966781965809532</v>
+      </c>
+      <c r="G23">
+        <v>0.2852879864215531</v>
+      </c>
+      <c r="H23">
+        <v>0.4445003885789819</v>
+      </c>
+      <c r="I23">
+        <v>-0.08877355891878395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02594558148603027</v>
+        <v>0.01008924937125594</v>
       </c>
       <c r="C24">
-        <v>0.05515129784416192</v>
+        <v>-0.06475835743526258</v>
       </c>
       <c r="D24">
-        <v>0.06875080811882929</v>
+        <v>0.05143050140395514</v>
       </c>
       <c r="E24">
-        <v>0.005175248737776272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02888643859762208</v>
+      </c>
+      <c r="F24">
+        <v>-0.004622319607664017</v>
+      </c>
+      <c r="G24">
+        <v>0.003018525603751565</v>
+      </c>
+      <c r="H24">
+        <v>-0.0754642739683806</v>
+      </c>
+      <c r="I24">
+        <v>-0.0441088939818922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02725070369950394</v>
+        <v>0.01436493823183411</v>
       </c>
       <c r="C25">
-        <v>0.04695952220060678</v>
+        <v>-0.059606516858668</v>
       </c>
       <c r="D25">
-        <v>0.06064313121567653</v>
+        <v>0.04968871653981679</v>
       </c>
       <c r="E25">
-        <v>0.001155280441082277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01368663611218163</v>
+      </c>
+      <c r="F25">
+        <v>-0.00605509019179409</v>
+      </c>
+      <c r="G25">
+        <v>-0.005315415277251868</v>
+      </c>
+      <c r="H25">
+        <v>-0.04225693967346102</v>
+      </c>
+      <c r="I25">
+        <v>-0.03879813698345814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008365932601600104</v>
+        <v>0.0142990272010405</v>
       </c>
       <c r="C26">
-        <v>0.01469129881282332</v>
+        <v>-0.02360920945027404</v>
       </c>
       <c r="D26">
-        <v>0.0807210385545744</v>
+        <v>0.06434364355038438</v>
       </c>
       <c r="E26">
-        <v>-0.01809607275210574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04121697227326267</v>
+      </c>
+      <c r="F26">
+        <v>0.04203116864447558</v>
+      </c>
+      <c r="G26">
+        <v>0.02147023953165614</v>
+      </c>
+      <c r="H26">
+        <v>-0.09080175709155554</v>
+      </c>
+      <c r="I26">
+        <v>0.01978199825716873</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2492609365181609</v>
+        <v>0.3181054904272416</v>
       </c>
       <c r="C28">
-        <v>-0.2103252589465618</v>
+        <v>0.09661045419321901</v>
       </c>
       <c r="D28">
-        <v>0.01862197488144498</v>
+        <v>-0.01304204217534309</v>
       </c>
       <c r="E28">
-        <v>-0.06358475663008234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.051524987046607</v>
+      </c>
+      <c r="F28">
+        <v>0.04821261462035007</v>
+      </c>
+      <c r="G28">
+        <v>0.03802786975833607</v>
+      </c>
+      <c r="H28">
+        <v>0.01370300891814857</v>
+      </c>
+      <c r="I28">
+        <v>0.04129773743713767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001229645015552942</v>
+        <v>-0.0001125237416293911</v>
       </c>
       <c r="C29">
-        <v>0.02102714020164557</v>
+        <v>-0.03148374688771585</v>
       </c>
       <c r="D29">
-        <v>0.09763754130587009</v>
+        <v>0.09968051258090835</v>
       </c>
       <c r="E29">
-        <v>-0.01352310249151742</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05519606137270532</v>
+      </c>
+      <c r="F29">
+        <v>0.03688240961432576</v>
+      </c>
+      <c r="G29">
+        <v>0.02210970398438269</v>
+      </c>
+      <c r="H29">
+        <v>-0.1274664076884275</v>
+      </c>
+      <c r="I29">
+        <v>-0.01366165284899919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02375834937126644</v>
+        <v>0.01483670304617376</v>
       </c>
       <c r="C30">
-        <v>0.05729965372956217</v>
+        <v>-0.08461790607652526</v>
       </c>
       <c r="D30">
-        <v>0.1669180223715267</v>
+        <v>0.1546650124835914</v>
       </c>
       <c r="E30">
-        <v>-0.02101279163529335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05263694260791366</v>
+      </c>
+      <c r="F30">
+        <v>0.0364566209157563</v>
+      </c>
+      <c r="G30">
+        <v>0.03581717331541399</v>
+      </c>
+      <c r="H30">
+        <v>-0.05328710403881463</v>
+      </c>
+      <c r="I30">
+        <v>-0.05525026294285033</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04152327858435537</v>
+        <v>0.01038822717843899</v>
       </c>
       <c r="C31">
-        <v>0.08402819490764019</v>
+        <v>-0.09248968199831632</v>
       </c>
       <c r="D31">
-        <v>0.06959563067272756</v>
+        <v>0.04054888560040149</v>
       </c>
       <c r="E31">
-        <v>-0.01144680772123445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01868201927119928</v>
+      </c>
+      <c r="F31">
+        <v>0.01530490108610288</v>
+      </c>
+      <c r="G31">
+        <v>0.01259261967747617</v>
+      </c>
+      <c r="H31">
+        <v>-0.04405869507270853</v>
+      </c>
+      <c r="I31">
+        <v>0.007215986483508282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01914425353371828</v>
+        <v>0.009901482740313048</v>
       </c>
       <c r="C32">
-        <v>0.03207458084041044</v>
+        <v>-0.04571632820030112</v>
       </c>
       <c r="D32">
-        <v>0.1036032622136914</v>
+        <v>0.10729748033747</v>
       </c>
       <c r="E32">
-        <v>-0.06537336863464134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001266663597263947</v>
+      </c>
+      <c r="F32">
+        <v>0.05289559265035328</v>
+      </c>
+      <c r="G32">
+        <v>0.02747166192526967</v>
+      </c>
+      <c r="H32">
+        <v>-0.03997185416791973</v>
+      </c>
+      <c r="I32">
+        <v>0.06873070529851015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01159359548057536</v>
+        <v>0.00698933399804666</v>
       </c>
       <c r="C33">
-        <v>0.03982640888245775</v>
+        <v>-0.05661334609602828</v>
       </c>
       <c r="D33">
-        <v>0.138485515998052</v>
+        <v>0.1217168712347213</v>
       </c>
       <c r="E33">
-        <v>-0.03708715334370963</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02490009663519913</v>
+      </c>
+      <c r="F33">
+        <v>0.02835883428083176</v>
+      </c>
+      <c r="G33">
+        <v>0.01301732602743896</v>
+      </c>
+      <c r="H33">
+        <v>-0.06294182486380985</v>
+      </c>
+      <c r="I33">
+        <v>-0.01215249600663385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02366311731814489</v>
+        <v>0.00789071948319984</v>
       </c>
       <c r="C34">
-        <v>0.05861689261833526</v>
+        <v>-0.06247061375208827</v>
       </c>
       <c r="D34">
-        <v>0.05145427347649185</v>
+        <v>0.03154244637897286</v>
       </c>
       <c r="E34">
-        <v>0.04801853212696018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02950267624256545</v>
+      </c>
+      <c r="F34">
+        <v>-0.03847128232321315</v>
+      </c>
+      <c r="G34">
+        <v>-0.0003354270757232513</v>
+      </c>
+      <c r="H34">
+        <v>-0.06069437358845861</v>
+      </c>
+      <c r="I34">
+        <v>-0.02501680370021941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.000908075317307655</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.007719000357868003</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02800549849171414</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003110046535290129</v>
+      </c>
+      <c r="F35">
+        <v>0.01576416983339777</v>
+      </c>
+      <c r="G35">
+        <v>0.01232325229791767</v>
+      </c>
+      <c r="H35">
+        <v>-0.03636219424843762</v>
+      </c>
+      <c r="I35">
+        <v>-0.0376622781169401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007329918687115152</v>
+        <v>0.01189325821056821</v>
       </c>
       <c r="C36">
-        <v>0.005632472027588574</v>
+        <v>-0.01833433460351382</v>
       </c>
       <c r="D36">
-        <v>0.0868836726396558</v>
+        <v>0.07339310404015012</v>
       </c>
       <c r="E36">
-        <v>-0.04192680083052377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02531177261446569</v>
+      </c>
+      <c r="F36">
+        <v>0.04823423587808873</v>
+      </c>
+      <c r="G36">
+        <v>0.01592832678566695</v>
+      </c>
+      <c r="H36">
+        <v>-0.06340658265589422</v>
+      </c>
+      <c r="I36">
+        <v>0.005211339109959982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005831204121842194</v>
+        <v>0.01478522462034279</v>
       </c>
       <c r="C38">
-        <v>0.005770426822938888</v>
+        <v>-0.0181362296983619</v>
       </c>
       <c r="D38">
-        <v>0.08547704469888746</v>
+        <v>0.08786447505276544</v>
       </c>
       <c r="E38">
-        <v>-0.009713505891771534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001519365465518041</v>
+      </c>
+      <c r="F38">
+        <v>0.001332917958532921</v>
+      </c>
+      <c r="G38">
+        <v>0.032466492915594</v>
+      </c>
+      <c r="H38">
+        <v>-0.05994610679345474</v>
+      </c>
+      <c r="I38">
+        <v>-0.01431893723956656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01655109547056588</v>
+        <v>0.003280912664480699</v>
       </c>
       <c r="C39">
-        <v>0.05567110200127508</v>
+        <v>-0.07310920711027225</v>
       </c>
       <c r="D39">
-        <v>0.1138671616154165</v>
+        <v>0.09807437353938583</v>
       </c>
       <c r="E39">
-        <v>0.01874695730612163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0531426624885796</v>
+      </c>
+      <c r="F39">
+        <v>-0.004458272018557814</v>
+      </c>
+      <c r="G39">
+        <v>0.003474545446108393</v>
+      </c>
+      <c r="H39">
+        <v>-0.1021630061721434</v>
+      </c>
+      <c r="I39">
+        <v>-0.0442625564487524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01127118038427914</v>
+        <v>0.01245773978234063</v>
       </c>
       <c r="C40">
-        <v>0.01622167010212335</v>
+        <v>-0.02772184417863082</v>
       </c>
       <c r="D40">
-        <v>0.1216038754932424</v>
+        <v>0.09825159663410586</v>
       </c>
       <c r="E40">
-        <v>0.02203260266631301</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04842497121401775</v>
+      </c>
+      <c r="F40">
+        <v>-0.02160936974733955</v>
+      </c>
+      <c r="G40">
+        <v>0.06723283777549004</v>
+      </c>
+      <c r="H40">
+        <v>-0.06951075028641709</v>
+      </c>
+      <c r="I40">
+        <v>0.08583561216130263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01133878205439215</v>
+        <v>0.01730916150781897</v>
       </c>
       <c r="C41">
-        <v>0.004557268672588787</v>
+        <v>-0.01588767385873524</v>
       </c>
       <c r="D41">
-        <v>0.05036940325603416</v>
+        <v>0.04416776475185229</v>
       </c>
       <c r="E41">
-        <v>-0.03087196948545421</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008530385056164545</v>
+      </c>
+      <c r="F41">
+        <v>0.02364791340041891</v>
+      </c>
+      <c r="G41">
+        <v>0.01990595803788509</v>
+      </c>
+      <c r="H41">
+        <v>-0.04015297096091393</v>
+      </c>
+      <c r="I41">
+        <v>-0.01548766280083553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005015086886253325</v>
+        <v>0.01132796674580942</v>
       </c>
       <c r="C43">
-        <v>0.005451372788740777</v>
+        <v>-0.01384823983888057</v>
       </c>
       <c r="D43">
-        <v>0.0596657693679712</v>
+        <v>0.05151047741877688</v>
       </c>
       <c r="E43">
-        <v>-0.02114797543645922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007835779101416862</v>
+      </c>
+      <c r="F43">
+        <v>0.02032414284606598</v>
+      </c>
+      <c r="G43">
+        <v>0.02215762149634648</v>
+      </c>
+      <c r="H43">
+        <v>-0.05551845679479348</v>
+      </c>
+      <c r="I43">
+        <v>-0.03038932851966624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01799358437702267</v>
+        <v>0.01209612495400232</v>
       </c>
       <c r="C44">
-        <v>0.0223784004993672</v>
+        <v>-0.04430313591018215</v>
       </c>
       <c r="D44">
-        <v>0.1113263487516783</v>
+        <v>0.1116852600653347</v>
       </c>
       <c r="E44">
-        <v>-0.04566324116105704</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03904110868481316</v>
+      </c>
+      <c r="F44">
+        <v>0.03579916316824781</v>
+      </c>
+      <c r="G44">
+        <v>0.03365938840385436</v>
+      </c>
+      <c r="H44">
+        <v>-0.04975833710368996</v>
+      </c>
+      <c r="I44">
+        <v>-0.04323579137802323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006392763106350449</v>
+        <v>-6.76672756241138e-05</v>
       </c>
       <c r="C46">
-        <v>0.0277477436206829</v>
+        <v>-0.03919626827911531</v>
       </c>
       <c r="D46">
-        <v>0.09164655323212918</v>
+        <v>0.07922728046756738</v>
       </c>
       <c r="E46">
-        <v>-0.01636657276596697</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04162487641401209</v>
+      </c>
+      <c r="F46">
+        <v>0.03298881341821033</v>
+      </c>
+      <c r="G46">
+        <v>0.03221582793634349</v>
+      </c>
+      <c r="H46">
+        <v>-0.130465771769034</v>
+      </c>
+      <c r="I46">
+        <v>-0.03507726009208817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08462696626530404</v>
+        <v>0.03671649057365251</v>
       </c>
       <c r="C47">
-        <v>0.1043910288392911</v>
+        <v>-0.1271238029990999</v>
       </c>
       <c r="D47">
-        <v>0.05962238029305971</v>
+        <v>0.0275934619144644</v>
       </c>
       <c r="E47">
-        <v>-0.02759705334810804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007732484217126753</v>
+      </c>
+      <c r="F47">
+        <v>-0.003003135680436259</v>
+      </c>
+      <c r="G47">
+        <v>-0.03014970219204445</v>
+      </c>
+      <c r="H47">
+        <v>-0.06096913030464853</v>
+      </c>
+      <c r="I47">
+        <v>0.0434914539472446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008015079425277981</v>
+        <v>0.01322026705634517</v>
       </c>
       <c r="C48">
-        <v>0.01600985577288839</v>
+        <v>-0.02816097397327334</v>
       </c>
       <c r="D48">
-        <v>0.09389443976540739</v>
+        <v>0.07802996274339141</v>
       </c>
       <c r="E48">
-        <v>-0.05351463411500307</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01850943324472665</v>
+      </c>
+      <c r="F48">
+        <v>0.05902916433015119</v>
+      </c>
+      <c r="G48">
+        <v>0.03083018250644396</v>
+      </c>
+      <c r="H48">
+        <v>-0.1010218172423256</v>
+      </c>
+      <c r="I48">
+        <v>-0.01014180335096837</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03946769580044036</v>
+        <v>0.01636165780992293</v>
       </c>
       <c r="C50">
-        <v>0.06072859457052002</v>
+        <v>-0.07602993883693347</v>
       </c>
       <c r="D50">
-        <v>0.06831888086568545</v>
+        <v>0.05006432196183486</v>
       </c>
       <c r="E50">
-        <v>-0.007630662001104094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0114451481913538</v>
+      </c>
+      <c r="F50">
+        <v>0.01032445683688271</v>
+      </c>
+      <c r="G50">
+        <v>0.02525436163887874</v>
+      </c>
+      <c r="H50">
+        <v>-0.03158235949496527</v>
+      </c>
+      <c r="I50">
+        <v>0.01349442595362634</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0003586455567296933</v>
+        <v>-0.0003789209584710231</v>
       </c>
       <c r="C51">
-        <v>0.002747559517845144</v>
+        <v>-0.01434186405903339</v>
       </c>
       <c r="D51">
-        <v>0.05810065872495648</v>
+        <v>0.0589393354248549</v>
       </c>
       <c r="E51">
-        <v>0.0005257077104699623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03944285581346193</v>
+      </c>
+      <c r="F51">
+        <v>0.03563440224570665</v>
+      </c>
+      <c r="G51">
+        <v>0.02934299273073042</v>
+      </c>
+      <c r="H51">
+        <v>-0.03515064836239962</v>
+      </c>
+      <c r="I51">
+        <v>0.02382944315662688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1102377831949257</v>
+        <v>0.05645439403438714</v>
       </c>
       <c r="C53">
-        <v>0.1207122612392816</v>
+        <v>-0.1549262473627382</v>
       </c>
       <c r="D53">
-        <v>0.01946856044348152</v>
+        <v>-0.01686672141256392</v>
       </c>
       <c r="E53">
-        <v>-0.06065514217964919</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02874832628663485</v>
+      </c>
+      <c r="F53">
+        <v>0.05071465361886544</v>
+      </c>
+      <c r="G53">
+        <v>0.004116868899990578</v>
+      </c>
+      <c r="H53">
+        <v>-0.001299370086852674</v>
+      </c>
+      <c r="I53">
+        <v>0.00594102123304756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01410827861576159</v>
+        <v>0.01087837780560266</v>
       </c>
       <c r="C54">
-        <v>0.02120911256727371</v>
+        <v>-0.03839013929762297</v>
       </c>
       <c r="D54">
-        <v>0.09858830347133081</v>
+        <v>0.08188796319309308</v>
       </c>
       <c r="E54">
-        <v>-0.0006647016940902618</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01531583133904033</v>
+      </c>
+      <c r="F54">
+        <v>0.0003539963460190468</v>
+      </c>
+      <c r="G54">
+        <v>0.03592013611849686</v>
+      </c>
+      <c r="H54">
+        <v>-0.07812063097732072</v>
+      </c>
+      <c r="I54">
+        <v>-0.03624016522982614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09816492371527391</v>
+        <v>0.04345153987508735</v>
       </c>
       <c r="C55">
-        <v>0.1014145710802345</v>
+        <v>-0.1286296982702271</v>
       </c>
       <c r="D55">
-        <v>0.008718135698035263</v>
+        <v>-0.02980881793223079</v>
       </c>
       <c r="E55">
-        <v>-0.0131010306854541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004298436020021767</v>
+      </c>
+      <c r="F55">
+        <v>0.01578253815316604</v>
+      </c>
+      <c r="G55">
+        <v>0.01415455757506526</v>
+      </c>
+      <c r="H55">
+        <v>-0.004704216818932674</v>
+      </c>
+      <c r="I55">
+        <v>0.02854521147825878</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1367422526923764</v>
+        <v>0.05852585887309571</v>
       </c>
       <c r="C56">
-        <v>0.1369667534924702</v>
+        <v>-0.1868110709395756</v>
       </c>
       <c r="D56">
-        <v>0.002410211178318421</v>
+        <v>-0.03055239329135067</v>
       </c>
       <c r="E56">
-        <v>-0.01339524144260773</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03205340835937766</v>
+      </c>
+      <c r="F56">
+        <v>0.0187508304870263</v>
+      </c>
+      <c r="G56">
+        <v>0.05933566702629372</v>
+      </c>
+      <c r="H56">
+        <v>0.01044600469867941</v>
+      </c>
+      <c r="I56">
+        <v>0.0324324426772511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.005789674369263441</v>
+        <v>0.006421558327155484</v>
       </c>
       <c r="C58">
-        <v>0.01229432146057086</v>
+        <v>-0.05083836964553424</v>
       </c>
       <c r="D58">
-        <v>0.2123382110510791</v>
+        <v>0.2731303286031416</v>
       </c>
       <c r="E58">
-        <v>-0.0773705979626175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.009530275430733861</v>
+      </c>
+      <c r="F58">
+        <v>0.1109488933354789</v>
+      </c>
+      <c r="G58">
+        <v>0.1129187050821421</v>
+      </c>
+      <c r="H58">
+        <v>0.1129387035527542</v>
+      </c>
+      <c r="I58">
+        <v>-0.06316470165480485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1747773155776906</v>
+        <v>0.2525959842413396</v>
       </c>
       <c r="C59">
-        <v>-0.1536458479244135</v>
+        <v>0.0666265034276519</v>
       </c>
       <c r="D59">
-        <v>0.04564413648066237</v>
+        <v>0.05736952413564032</v>
       </c>
       <c r="E59">
-        <v>-0.03527996541988544</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02255539473203216</v>
+      </c>
+      <c r="F59">
+        <v>0.02498199410942524</v>
+      </c>
+      <c r="G59">
+        <v>0.01010468209035315</v>
+      </c>
+      <c r="H59">
+        <v>0.003445805959304122</v>
+      </c>
+      <c r="I59">
+        <v>0.07343257084580154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1928118300044234</v>
+        <v>0.1520708607469769</v>
       </c>
       <c r="C60">
-        <v>0.09397827673394578</v>
+        <v>-0.1707304948889134</v>
       </c>
       <c r="D60">
-        <v>0.1913660870276075</v>
+        <v>0.09146636744398261</v>
       </c>
       <c r="E60">
-        <v>0.1709830428997176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1673044031050079</v>
+      </c>
+      <c r="F60">
+        <v>-0.2241825680446775</v>
+      </c>
+      <c r="G60">
+        <v>-0.2595601342534786</v>
+      </c>
+      <c r="H60">
+        <v>0.1780665296512665</v>
+      </c>
+      <c r="I60">
+        <v>0.09409212962311171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02756449953205622</v>
+        <v>0.01113695363061937</v>
       </c>
       <c r="C61">
-        <v>0.05187782137595499</v>
+        <v>-0.07094658196054757</v>
       </c>
       <c r="D61">
-        <v>0.1003419877506153</v>
+        <v>0.07820603328028088</v>
       </c>
       <c r="E61">
-        <v>0.009050593412220578</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03634072940651538</v>
+      </c>
+      <c r="F61">
+        <v>-0.01527594217970357</v>
+      </c>
+      <c r="G61">
+        <v>-0.01155853374337275</v>
+      </c>
+      <c r="H61">
+        <v>-0.09071047020168935</v>
+      </c>
+      <c r="I61">
+        <v>-0.02232510651397432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0083095717118564</v>
+        <v>0.009133063007592227</v>
       </c>
       <c r="C63">
-        <v>0.02556625599177807</v>
+        <v>-0.03455548273878842</v>
       </c>
       <c r="D63">
-        <v>0.09422896217527195</v>
+        <v>0.06771401075043285</v>
       </c>
       <c r="E63">
-        <v>-0.01279622985098199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0544544071056343</v>
+      </c>
+      <c r="F63">
+        <v>0.02751149220228796</v>
+      </c>
+      <c r="G63">
+        <v>0.02057152865860179</v>
+      </c>
+      <c r="H63">
+        <v>-0.06610098179641012</v>
+      </c>
+      <c r="I63">
+        <v>-0.03141167095148113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05928524627240957</v>
+        <v>0.01994852660107778</v>
       </c>
       <c r="C64">
-        <v>0.08063065653973042</v>
+        <v>-0.1055106641116616</v>
       </c>
       <c r="D64">
-        <v>0.03818087428450886</v>
+        <v>0.02468468186017624</v>
       </c>
       <c r="E64">
-        <v>-0.0137774468386202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02874330237772841</v>
+      </c>
+      <c r="F64">
+        <v>0.01774043477160035</v>
+      </c>
+      <c r="G64">
+        <v>-0.04096291082032966</v>
+      </c>
+      <c r="H64">
+        <v>-0.1115901463156454</v>
+      </c>
+      <c r="I64">
+        <v>-0.0460776868743891</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02621425935657226</v>
+        <v>0.02158118330112924</v>
       </c>
       <c r="C65">
-        <v>0.01624424690074755</v>
+        <v>-0.04248458902623947</v>
       </c>
       <c r="D65">
-        <v>0.1201408504793045</v>
+        <v>0.1178491442072856</v>
       </c>
       <c r="E65">
-        <v>-0.002704779437410252</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04174295912047352</v>
+      </c>
+      <c r="F65">
+        <v>-0.008170421827373195</v>
+      </c>
+      <c r="G65">
+        <v>-0.02345528322485991</v>
+      </c>
+      <c r="H65">
+        <v>-0.03410964527107053</v>
+      </c>
+      <c r="I65">
+        <v>-0.06250853456547506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02070636038977065</v>
+        <v>0.0009360721729595287</v>
       </c>
       <c r="C66">
-        <v>0.06336974565817725</v>
+        <v>-0.09026957765490952</v>
       </c>
       <c r="D66">
-        <v>0.1202220109827719</v>
+        <v>0.1230795787877319</v>
       </c>
       <c r="E66">
-        <v>0.02126854190680357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03995129383636581</v>
+      </c>
+      <c r="F66">
+        <v>-0.01060699036013383</v>
+      </c>
+      <c r="G66">
+        <v>0.0169620039858016</v>
+      </c>
+      <c r="H66">
+        <v>-0.05973844825324463</v>
+      </c>
+      <c r="I66">
+        <v>-0.03451244828922552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02545860567126064</v>
+        <v>0.02533203423952033</v>
       </c>
       <c r="C67">
-        <v>0.01796445110117963</v>
+        <v>-0.03009307677751563</v>
       </c>
       <c r="D67">
-        <v>0.04003710876414632</v>
+        <v>0.03960816859435119</v>
       </c>
       <c r="E67">
-        <v>0.01584719895596498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.008474945713996554</v>
+      </c>
+      <c r="F67">
+        <v>-0.02825851940098972</v>
+      </c>
+      <c r="G67">
+        <v>0.01695922346960989</v>
+      </c>
+      <c r="H67">
+        <v>-0.06326428654598686</v>
+      </c>
+      <c r="I67">
+        <v>-0.0173085823701087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1993948854993138</v>
+        <v>0.2731874099566333</v>
       </c>
       <c r="C68">
-        <v>-0.1641940618814111</v>
+        <v>0.07050208876150951</v>
       </c>
       <c r="D68">
-        <v>0.03440344746163005</v>
+        <v>0.0299009731037032</v>
       </c>
       <c r="E68">
-        <v>-0.0088160588713756</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004840013749023635</v>
+      </c>
+      <c r="F68">
+        <v>0.02703645150387756</v>
+      </c>
+      <c r="G68">
+        <v>0.05979776582192422</v>
+      </c>
+      <c r="H68">
+        <v>0.06446222937517411</v>
+      </c>
+      <c r="I68">
+        <v>0.04680174385508824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06169748622257239</v>
+        <v>0.0216065343927236</v>
       </c>
       <c r="C69">
-        <v>0.1131921761323442</v>
+        <v>-0.1178841498769117</v>
       </c>
       <c r="D69">
-        <v>0.08255379960479742</v>
+        <v>0.03416400720259061</v>
       </c>
       <c r="E69">
-        <v>-0.01582153838789455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007313082271340923</v>
+      </c>
+      <c r="F69">
+        <v>-0.005186672482979183</v>
+      </c>
+      <c r="G69">
+        <v>-0.01181889104538785</v>
+      </c>
+      <c r="H69">
+        <v>-0.04614002361814452</v>
+      </c>
+      <c r="I69">
+        <v>0.02080204145618453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2066770185729137</v>
+        <v>0.2742099394685085</v>
       </c>
       <c r="C71">
-        <v>-0.1875698559748974</v>
+        <v>0.08548643905774139</v>
       </c>
       <c r="D71">
-        <v>0.0238605341339222</v>
+        <v>0.0160208969170097</v>
       </c>
       <c r="E71">
-        <v>-0.01492597350851526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.00182091454458969</v>
+      </c>
+      <c r="F71">
+        <v>0.02076777978243627</v>
+      </c>
+      <c r="G71">
+        <v>0.03977326610626479</v>
+      </c>
+      <c r="H71">
+        <v>-0.01266806053181461</v>
+      </c>
+      <c r="I71">
+        <v>0.05090572335420527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1083087904112305</v>
+        <v>0.05686669491219482</v>
       </c>
       <c r="C72">
-        <v>0.07027402582315333</v>
+        <v>-0.1228859270517921</v>
       </c>
       <c r="D72">
-        <v>0.1050941785280719</v>
+        <v>0.05787701701103878</v>
       </c>
       <c r="E72">
-        <v>0.05108637334653923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07010398060420613</v>
+      </c>
+      <c r="F72">
+        <v>-0.03057595853214425</v>
+      </c>
+      <c r="G72">
+        <v>-0.024426852500132</v>
+      </c>
+      <c r="H72">
+        <v>-0.05058535719424625</v>
+      </c>
+      <c r="I72">
+        <v>-0.05687705224896236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1773734006824448</v>
+        <v>0.1419126739100809</v>
       </c>
       <c r="C73">
-        <v>0.05863977832697345</v>
+        <v>-0.1443213481384119</v>
       </c>
       <c r="D73">
-        <v>0.2634786585380054</v>
+        <v>0.1078804756137755</v>
       </c>
       <c r="E73">
-        <v>0.2613016446334701</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2999559020118182</v>
+      </c>
+      <c r="F73">
+        <v>-0.324173007291517</v>
+      </c>
+      <c r="G73">
+        <v>-0.4289759614520626</v>
+      </c>
+      <c r="H73">
+        <v>0.0800291784451561</v>
+      </c>
+      <c r="I73">
+        <v>0.03935614284942304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1121267912318391</v>
+        <v>0.05137666131395519</v>
       </c>
       <c r="C74">
-        <v>0.1121152900997152</v>
+        <v>-0.1469886128043058</v>
       </c>
       <c r="D74">
-        <v>-0.0179920474859049</v>
+        <v>-0.04120432176154515</v>
       </c>
       <c r="E74">
-        <v>-0.04222614903743296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01153982016505832</v>
+      </c>
+      <c r="F74">
+        <v>0.03752892409876565</v>
+      </c>
+      <c r="G74">
+        <v>-0.00193869635315004</v>
+      </c>
+      <c r="H74">
+        <v>0.01824791457779026</v>
+      </c>
+      <c r="I74">
+        <v>0.04077094745986626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.240716877428426</v>
+        <v>0.112845397399051</v>
       </c>
       <c r="C75">
-        <v>0.1908261753510942</v>
+        <v>-0.2682390242501425</v>
       </c>
       <c r="D75">
-        <v>-0.1050570914774386</v>
+        <v>-0.1353478727754392</v>
       </c>
       <c r="E75">
-        <v>0.02160438112311361</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08689244196239349</v>
+      </c>
+      <c r="F75">
+        <v>-0.02963688233243625</v>
+      </c>
+      <c r="G75">
+        <v>0.09740406201920253</v>
+      </c>
+      <c r="H75">
+        <v>0.01187504412173323</v>
+      </c>
+      <c r="I75">
+        <v>0.02127219327297848</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.14358795079332</v>
+        <v>0.06424963821362661</v>
       </c>
       <c r="C76">
-        <v>0.1350095512597825</v>
+        <v>-0.1820926910725341</v>
       </c>
       <c r="D76">
-        <v>0.01802610635011144</v>
+        <v>-0.03607941710420814</v>
       </c>
       <c r="E76">
-        <v>-0.0105245043085265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02255942075913824</v>
+      </c>
+      <c r="F76">
+        <v>0.004276958900373603</v>
+      </c>
+      <c r="G76">
+        <v>0.04462461231325866</v>
+      </c>
+      <c r="H76">
+        <v>-0.02153585406112878</v>
+      </c>
+      <c r="I76">
+        <v>0.014221700294916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.021594946904153</v>
+        <v>0.001590906263044072</v>
       </c>
       <c r="C77">
-        <v>0.06867027357723227</v>
+        <v>-0.1028060094413058</v>
       </c>
       <c r="D77">
-        <v>0.03129500954170976</v>
+        <v>0.3055133118253082</v>
       </c>
       <c r="E77">
-        <v>-0.2234708824417592</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8403160868756931</v>
+      </c>
+      <c r="F77">
+        <v>-0.2376856972672633</v>
+      </c>
+      <c r="G77">
+        <v>-0.2380009481439188</v>
+      </c>
+      <c r="H77">
+        <v>0.1107315558938706</v>
+      </c>
+      <c r="I77">
+        <v>0.01153873338224875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02892191988015929</v>
+        <v>0.0168704878666647</v>
       </c>
       <c r="C78">
-        <v>0.06492170410286409</v>
+        <v>-0.08703231522731361</v>
       </c>
       <c r="D78">
-        <v>0.1521881398010491</v>
+        <v>0.1254786714795112</v>
       </c>
       <c r="E78">
-        <v>-0.04367463456331694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06697990863598138</v>
+      </c>
+      <c r="F78">
+        <v>0.04689246702641575</v>
+      </c>
+      <c r="G78">
+        <v>0.0340919631249855</v>
+      </c>
+      <c r="H78">
+        <v>-0.01593816806950374</v>
+      </c>
+      <c r="I78">
+        <v>0.1342087827141671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09958568736609459</v>
+        <v>0.03619623239937903</v>
       </c>
       <c r="C79">
-        <v>0.1686451789683544</v>
+        <v>-0.1879871690301364</v>
       </c>
       <c r="D79">
-        <v>-0.08861754939281477</v>
+        <v>-0.07253014343224119</v>
       </c>
       <c r="E79">
-        <v>-0.8015825353902311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05361573575155682</v>
+      </c>
+      <c r="F79">
+        <v>0.7700880807240744</v>
+      </c>
+      <c r="G79">
+        <v>-0.4778501842206249</v>
+      </c>
+      <c r="H79">
+        <v>0.1968579688506514</v>
+      </c>
+      <c r="I79">
+        <v>-0.0569406908624714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.006538774821189018</v>
+        <v>0.005339626516821444</v>
       </c>
       <c r="C80">
-        <v>0.04471666590651443</v>
+        <v>-0.04478268644530241</v>
       </c>
       <c r="D80">
-        <v>0.0490691654044237</v>
+        <v>0.04208360594939507</v>
       </c>
       <c r="E80">
-        <v>0.00700745273197874</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04191476386206207</v>
+      </c>
+      <c r="F80">
+        <v>0.00806718991096355</v>
+      </c>
+      <c r="G80">
+        <v>0.0250420338323093</v>
+      </c>
+      <c r="H80">
+        <v>-0.02143580101867677</v>
+      </c>
+      <c r="I80">
+        <v>0.07014326845352256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1231606852019271</v>
+        <v>0.04567785889208907</v>
       </c>
       <c r="C81">
-        <v>0.1298625971648147</v>
+        <v>-0.1654197610553704</v>
       </c>
       <c r="D81">
-        <v>-0.07304666494820933</v>
+        <v>-0.082359327195037</v>
       </c>
       <c r="E81">
-        <v>-0.06529781245548671</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05104272103562717</v>
+      </c>
+      <c r="F81">
+        <v>0.06143198311493116</v>
+      </c>
+      <c r="G81">
+        <v>0.0604494947869318</v>
+      </c>
+      <c r="H81">
+        <v>-0.05723963124142274</v>
+      </c>
+      <c r="I81">
+        <v>0.03977919961168794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2615876222821059</v>
+        <v>0.09593888147875107</v>
       </c>
       <c r="C82">
-        <v>0.2899958013957242</v>
+        <v>-0.3274609442244623</v>
       </c>
       <c r="D82">
-        <v>-0.204991048996266</v>
+        <v>-0.2333322218451672</v>
       </c>
       <c r="E82">
-        <v>0.1336118831144317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05337592784002065</v>
+      </c>
+      <c r="F82">
+        <v>-0.1037021923321945</v>
+      </c>
+      <c r="G82">
+        <v>0.1170916320008262</v>
+      </c>
+      <c r="H82">
+        <v>-0.09305116283707436</v>
+      </c>
+      <c r="I82">
+        <v>0.02632887032983309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.005229765875785811</v>
+        <v>-0.0168765206836654</v>
       </c>
       <c r="C83">
-        <v>0.05155615701680216</v>
+        <v>-0.02710266473709281</v>
       </c>
       <c r="D83">
-        <v>0.01182027211795303</v>
+        <v>0.02435652748857721</v>
       </c>
       <c r="E83">
-        <v>-0.05806138020181228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07561112776411988</v>
+      </c>
+      <c r="F83">
+        <v>0.07264478036327111</v>
+      </c>
+      <c r="G83">
+        <v>0.09037586054456427</v>
+      </c>
+      <c r="H83">
+        <v>-0.03570403067732826</v>
+      </c>
+      <c r="I83">
+        <v>0.803926437968871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0005520053791097369</v>
+        <v>-0.001214034627531437</v>
       </c>
       <c r="C84">
-        <v>-0.001800816995446262</v>
+        <v>-0.01921216807115401</v>
       </c>
       <c r="D84">
-        <v>0.004849137462719695</v>
+        <v>0.04794530077589178</v>
       </c>
       <c r="E84">
-        <v>-0.0003414112156390197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0007624571731598366</v>
+      </c>
+      <c r="F84">
+        <v>0.02965198201380138</v>
+      </c>
+      <c r="G84">
+        <v>0.05158628671677967</v>
+      </c>
+      <c r="H84">
+        <v>-0.007314107206910189</v>
+      </c>
+      <c r="I84">
+        <v>-0.06753570940120961</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1457270049731328</v>
+        <v>0.06023547266523442</v>
       </c>
       <c r="C85">
-        <v>0.1343117522574324</v>
+        <v>-0.1831739261590432</v>
       </c>
       <c r="D85">
-        <v>-0.03834901090707628</v>
+        <v>-0.08940448847784374</v>
       </c>
       <c r="E85">
-        <v>-0.02838080765319936</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002095144490869103</v>
+      </c>
+      <c r="F85">
+        <v>0.07316474811346939</v>
+      </c>
+      <c r="G85">
+        <v>0.01995118915269881</v>
+      </c>
+      <c r="H85">
+        <v>0.01094128929144434</v>
+      </c>
+      <c r="I85">
+        <v>0.01595807786031272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01434603788894077</v>
+        <v>0.012035591296975</v>
       </c>
       <c r="C86">
-        <v>0.01321237978090955</v>
+        <v>-0.03255191203921893</v>
       </c>
       <c r="D86">
-        <v>0.07693135029081681</v>
+        <v>0.101897402230922</v>
       </c>
       <c r="E86">
-        <v>-0.04786479861512029</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02358639929196182</v>
+      </c>
+      <c r="F86">
+        <v>-0.001346312187172512</v>
+      </c>
+      <c r="G86">
+        <v>-0.008204178306032432</v>
+      </c>
+      <c r="H86">
+        <v>-0.02414297251579204</v>
+      </c>
+      <c r="I86">
+        <v>0.03839270165586423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02030316143925583</v>
+        <v>0.01193876986997557</v>
       </c>
       <c r="C87">
-        <v>0.02349013513988111</v>
+        <v>-0.05650838642439195</v>
       </c>
       <c r="D87">
-        <v>0.1332681599966162</v>
+        <v>0.1459650160650574</v>
       </c>
       <c r="E87">
-        <v>-0.05112349208387409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.008304099231948256</v>
+      </c>
+      <c r="F87">
+        <v>0.04748774831143786</v>
+      </c>
+      <c r="G87">
+        <v>0.05993876490886571</v>
+      </c>
+      <c r="H87">
+        <v>-0.0269552167224347</v>
+      </c>
+      <c r="I87">
+        <v>0.03723433179363436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05658790914556164</v>
+        <v>0.03574423492929297</v>
       </c>
       <c r="C88">
-        <v>0.04539866254026247</v>
+        <v>-0.06807257086995254</v>
       </c>
       <c r="D88">
-        <v>0.02741936951364512</v>
+        <v>0.009327202544412579</v>
       </c>
       <c r="E88">
-        <v>-0.02963125790372051</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02439045485461788</v>
+      </c>
+      <c r="F88">
+        <v>0.01786760468972249</v>
+      </c>
+      <c r="G88">
+        <v>-0.003181847870993227</v>
+      </c>
+      <c r="H88">
+        <v>-0.02080353142439414</v>
+      </c>
+      <c r="I88">
+        <v>-0.03083055277655535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3057890149412349</v>
+        <v>0.4063013353399619</v>
       </c>
       <c r="C89">
-        <v>-0.3402981112727204</v>
+        <v>0.1640315270959865</v>
       </c>
       <c r="D89">
-        <v>0.01525874557208253</v>
+        <v>0.02821245085940964</v>
       </c>
       <c r="E89">
-        <v>-0.09286153935179634</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05356504659827461</v>
+      </c>
+      <c r="F89">
+        <v>0.06815915644241069</v>
+      </c>
+      <c r="G89">
+        <v>0.03615173743830594</v>
+      </c>
+      <c r="H89">
+        <v>-0.1154767890651623</v>
+      </c>
+      <c r="I89">
+        <v>0.03865318618190588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2443030943265158</v>
+        <v>0.3162084173572532</v>
       </c>
       <c r="C90">
-        <v>-0.2504432008805531</v>
+        <v>0.1130007128784716</v>
       </c>
       <c r="D90">
-        <v>0.03552811989953811</v>
+        <v>0.02990569810793776</v>
       </c>
       <c r="E90">
-        <v>0.006613781279433057</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01144765590672087</v>
+      </c>
+      <c r="F90">
+        <v>-0.007484769043886358</v>
+      </c>
+      <c r="G90">
+        <v>0.0643614407727966</v>
+      </c>
+      <c r="H90">
+        <v>0.0316678719192908</v>
+      </c>
+      <c r="I90">
+        <v>0.04990516396873069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1614972574630295</v>
+        <v>0.07097400072349594</v>
       </c>
       <c r="C91">
-        <v>0.1825999539243415</v>
+        <v>-0.2103019211166813</v>
       </c>
       <c r="D91">
-        <v>-0.09591265920633327</v>
+        <v>-0.1090503791094102</v>
       </c>
       <c r="E91">
-        <v>-0.09582562709545184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0605399746319714</v>
+      </c>
+      <c r="F91">
+        <v>0.07284047551588661</v>
+      </c>
+      <c r="G91">
+        <v>0.006580549445340194</v>
+      </c>
+      <c r="H91">
+        <v>0.0005585967815626202</v>
+      </c>
+      <c r="I91">
+        <v>0.05075350643256442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2327878871225996</v>
+        <v>0.3362303812581182</v>
       </c>
       <c r="C92">
-        <v>-0.2686989630700518</v>
+        <v>0.1456758548790815</v>
       </c>
       <c r="D92">
-        <v>-0.05651485266944589</v>
+        <v>-0.006666089090076825</v>
       </c>
       <c r="E92">
-        <v>-0.05253131987999884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06856124548016923</v>
+      </c>
+      <c r="F92">
+        <v>0.02825655170181</v>
+      </c>
+      <c r="G92">
+        <v>0.02988701638757189</v>
+      </c>
+      <c r="H92">
+        <v>-0.02276914998140795</v>
+      </c>
+      <c r="I92">
+        <v>-0.2621937557133439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2721012741841767</v>
+        <v>0.3341158975029666</v>
       </c>
       <c r="C93">
-        <v>-0.2594986922509894</v>
+        <v>0.116962237099453</v>
       </c>
       <c r="D93">
-        <v>0.01421532045808045</v>
+        <v>-0.017892964649103</v>
       </c>
       <c r="E93">
-        <v>-0.00343367804843133</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02551511686633698</v>
+      </c>
+      <c r="F93">
+        <v>0.007662954083485783</v>
+      </c>
+      <c r="G93">
+        <v>-0.01842189851413455</v>
+      </c>
+      <c r="H93">
+        <v>-0.001950358424878578</v>
+      </c>
+      <c r="I93">
+        <v>0.0003174717529032989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3056612552521988</v>
+        <v>0.1352308582437375</v>
       </c>
       <c r="C94">
-        <v>0.262978526577668</v>
+        <v>-0.3582233938214917</v>
       </c>
       <c r="D94">
-        <v>-0.3557440309433975</v>
+        <v>-0.3473836049829268</v>
       </c>
       <c r="E94">
-        <v>0.20144530558076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05572659613137759</v>
+      </c>
+      <c r="F94">
+        <v>-0.09412683627750279</v>
+      </c>
+      <c r="G94">
+        <v>0.2952660852049642</v>
+      </c>
+      <c r="H94">
+        <v>0.09577460419175673</v>
+      </c>
+      <c r="I94">
+        <v>-0.1543959751994323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01640605747610331</v>
+        <v>0.01872367014576419</v>
       </c>
       <c r="C95">
-        <v>0.03854736687374762</v>
+        <v>-0.06326751510803458</v>
       </c>
       <c r="D95">
-        <v>0.02897865121219537</v>
+        <v>0.1045296956195328</v>
       </c>
       <c r="E95">
-        <v>-0.08332046870749617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1568920414155784</v>
+      </c>
+      <c r="F95">
+        <v>-0.0226485596409222</v>
+      </c>
+      <c r="G95">
+        <v>-0.03390189183658571</v>
+      </c>
+      <c r="H95">
+        <v>-0.4182450813085838</v>
+      </c>
+      <c r="I95">
+        <v>-0.2506392861952278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001208851009423049</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0005667947642194077</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0009751605614037007</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003365417676092772</v>
+      </c>
+      <c r="F97">
+        <v>-5.703279858955158e-05</v>
+      </c>
+      <c r="G97">
+        <v>0.0004405583628594114</v>
+      </c>
+      <c r="H97">
+        <v>-0.003436910676406601</v>
+      </c>
+      <c r="I97">
+        <v>-0.004050346981051989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1477014190906772</v>
+        <v>0.1146225133396868</v>
       </c>
       <c r="C98">
-        <v>0.07941013801065734</v>
+        <v>-0.1476312645223844</v>
       </c>
       <c r="D98">
-        <v>0.1472504875708206</v>
+        <v>0.06897842039297737</v>
       </c>
       <c r="E98">
-        <v>0.1997003921388022</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2063904851010735</v>
+      </c>
+      <c r="F98">
+        <v>-0.2416432812854649</v>
+      </c>
+      <c r="G98">
+        <v>-0.2982364221764946</v>
+      </c>
+      <c r="H98">
+        <v>0.1243792339730149</v>
+      </c>
+      <c r="I98">
+        <v>0.03336549877426865</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.000636230489706121</v>
+        <v>0.0003443594742614747</v>
       </c>
       <c r="C101">
-        <v>0.02041020851709917</v>
+        <v>-0.03096989045528138</v>
       </c>
       <c r="D101">
-        <v>0.09782031005391689</v>
+        <v>0.09926337714816595</v>
       </c>
       <c r="E101">
-        <v>-0.01450707643370147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05471473076712217</v>
+      </c>
+      <c r="F101">
+        <v>0.03726311113310963</v>
+      </c>
+      <c r="G101">
+        <v>0.02261199614682877</v>
+      </c>
+      <c r="H101">
+        <v>-0.1284816241790538</v>
+      </c>
+      <c r="I101">
+        <v>-0.01317975027117211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1091069171835815</v>
+        <v>0.03054892385277778</v>
       </c>
       <c r="C102">
-        <v>0.1538640356351414</v>
+        <v>-0.1511313759928951</v>
       </c>
       <c r="D102">
-        <v>-0.06673111642544255</v>
+        <v>-0.09558927486494292</v>
       </c>
       <c r="E102">
-        <v>0.04984047193922555</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03322823461135063</v>
+      </c>
+      <c r="F102">
+        <v>-0.05988549597682093</v>
+      </c>
+      <c r="G102">
+        <v>0.006951809549778571</v>
+      </c>
+      <c r="H102">
+        <v>-0.05490058166030069</v>
+      </c>
+      <c r="I102">
+        <v>0.02584041772256543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
